--- a/ctdpy/templates/Format Profile.xlsx
+++ b/ctdpy/templates/Format Profile.xlsx
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="276">
   <si>
     <t>SHIPC</t>
   </si>
@@ -1068,6 +1068,12 @@
   </si>
   <si>
     <t>Filnamnet på tillhörande levererad datafil</t>
+  </si>
+  <si>
+    <t>hhhhh</t>
+  </si>
+  <si>
+    <t>jj</t>
   </si>
 </sst>
 </file>
@@ -2893,10 +2899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,6 +3091,16 @@
       </c>
       <c r="V3" s="112" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/ctdpy/templates/Format Profile.xlsx
+++ b/ctdpy/templates/Format Profile.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Utveckling\ctdpy\ctdpy\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2DCCB3-7F48-4B3A-925C-6A68B9DCA812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="18930" windowHeight="5790" tabRatio="840" activeTab="2"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="18930" windowHeight="5790" tabRatio="840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Förklaring" sheetId="7" r:id="rId1"/>
@@ -13,17 +19,17 @@
     <sheet name="Information" sheetId="9" r:id="rId4"/>
     <sheet name="Kolumnförklaring" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Martin Hansson</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -209,13 +215,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Martin Hansson</author>
     <author>Örjan Bäck</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1">
+    <comment ref="J2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="274">
   <si>
     <t>SHIPC</t>
   </si>
@@ -1068,18 +1074,12 @@
   </si>
   <si>
     <t>Filnamnet på tillhörande levererad datafil</t>
-  </si>
-  <si>
-    <t>hhhhh</t>
-  </si>
-  <si>
-    <t>jj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1999,49 +1999,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="51">
-    <cellStyle name="20% - Dekorfärg1" xfId="21" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Dekorfärg2" xfId="25" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Dekorfärg3" xfId="29" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Dekorfärg4" xfId="33" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Dekorfärg5" xfId="37" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Dekorfärg6" xfId="41" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg1" xfId="22" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg2" xfId="26" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg3" xfId="30" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg4" xfId="34" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg5" xfId="38" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg6" xfId="42" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg1" xfId="23" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg2" xfId="27" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg3" xfId="31" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg4" xfId="35" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg5" xfId="39" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg6" xfId="43" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg1" xfId="21" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg2" xfId="25" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg3" xfId="29" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg4" xfId="33" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg5" xfId="37" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg6" xfId="41" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg1" xfId="22" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg2" xfId="26" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg3" xfId="30" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg4" xfId="34" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg5" xfId="38" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg6" xfId="42" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg1" xfId="23" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg2" xfId="27" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg3" xfId="31" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg4" xfId="35" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg5" xfId="39" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg6" xfId="43" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Anteckning" xfId="17" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Beräkning" xfId="13" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Bra" xfId="8" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg1" xfId="20" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg2" xfId="24" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg3" xfId="28" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg4" xfId="32" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg6" xfId="40" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Dålig" xfId="9" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Färg1" xfId="20" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Färg2" xfId="24" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Färg3" xfId="28" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Färg4" xfId="32" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Färg5" xfId="36" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Färg6" xfId="40" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Förklarande text" xfId="18" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Indata" xfId="11" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Kontrollcell" xfId="15" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Länkad cell" xfId="14" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="10" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="45"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 3 2" xfId="46"/>
-    <cellStyle name="Normal 4" xfId="44"/>
-    <cellStyle name="Normal 4 2" xfId="49"/>
-    <cellStyle name="Normal 4 2 2" xfId="50"/>
-    <cellStyle name="Normal 4 3" xfId="48"/>
-    <cellStyle name="Normal 7" xfId="47"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 3 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 4" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 4 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 7" xfId="47" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Rubrik" xfId="3" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Rubrik 1" xfId="4" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Rubrik 2" xfId="5" builtinId="17" customBuiltin="1"/>
@@ -2056,6 +2056,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2104,7 +2107,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2137,9 +2140,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2172,6 +2192,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2347,7 +2384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2604,11 +2641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,11 +2935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3093,16 +3130,6 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>275</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3111,7 +3138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3144,7 +3171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
